--- a/Additional_files/Valori_Sens.xlsx
+++ b/Additional_files/Valori_Sens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\Magistrale\II_primo_semestre\Project  Lab Sens\AY2223_I_Project-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Virginia\Desktop\UNI\LABORATORIO DI TECNOLOGIE ELETTRONICHE E BIOSENSORI\PROGETTO\CODICE\AY2223_I_Project-3\Additional_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E89F9AD-6CE9-41C9-AE3C-5E6FEB6423EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207D087-8258-4C6E-91BB-0E59E04800DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{624881B4-53B3-4BB3-B7CB-CD96219604EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{624881B4-53B3-4BB3-B7CB-CD96219604EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Porte</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
@@ -150,6 +145,18 @@
   </si>
   <si>
     <t>24F5</t>
+  </si>
+  <si>
+    <t>2.5 (1)</t>
+  </si>
+  <si>
+    <t>2.4 (2)</t>
+  </si>
+  <si>
+    <t>2.3 (3)</t>
+  </si>
+  <si>
+    <t>2.6(4)</t>
   </si>
 </sst>
 </file>
@@ -520,48 +527,48 @@
   <dimension ref="B3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -569,21 +576,21 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f>HEX2DEC($C5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3">
         <f>HEX2DEC($E5)</f>
@@ -598,250 +605,250 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D18" si="0">HEX2DEC($C6)</f>
         <v>4017</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <f>HEX2DEC($E6)</f>
         <v>5347</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H18" si="1">HEX2DEC($G6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J18" si="2">HEX2DEC($I6)</f>
         <v>6248</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>4152</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <f>HEX2DEC($E7)</f>
         <v>5347</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
         <v>6242</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4211</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F18" si="3">HEX2DEC($E8)</f>
+        <v>5347</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>6241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4211</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F6:F18" si="3">HEX2DEC($E8)</f>
-        <v>5347</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>6241</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>8343</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
         <v>10279</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>968</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
         <v>9308</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>8197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <f>HEX2DEC($E10)</f>
         <v>10281</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>1209</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
         <v>9421</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>8210</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
         <v>10325</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>6576</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
         <v>9443</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>8276</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
         <v>10336</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>5387</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
         <v>9466</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>8272</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
         <v>10329</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>2812</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
         <v>9461</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C14" s="4"/>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -863,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" s="4"/>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -885,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -907,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C17" s="4"/>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -929,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C18" s="4"/>
       <c r="D18">
         <f t="shared" si="0"/>
